--- a/data/_input/static/base_adhoc.xlsx
+++ b/data/_input/static/base_adhoc.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://worldhealthorg.sharepoint.com/sites/COVID19VaccineDeliveryFacility-DataAnalyticsandMonitoring/Shared Documents/Data, Analytics, and Monitoring/02 Analysis/03 CCAP data files/220428/input/static/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dalberg\Documents\GitHub\covid19_vaccination_data\data\_input\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{DE7D95E1-C864-4406-8C11-8A3892144999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E5805243-8F68-44C4-90A8-F0723143FA46}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE23FC7-8005-4119-8700-EBD367B8D940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{43689874-1506-456E-964F-93125D26FA22}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="131">
   <si>
     <t>PNG</t>
   </si>
@@ -357,9 +357,6 @@
     <t>eJRF - multiple</t>
   </si>
   <si>
-    <t>Region/IST</t>
-  </si>
-  <si>
     <t>Region</t>
   </si>
   <si>
@@ -406,6 +403,30 @@
   </si>
   <si>
     <t>jj_policy</t>
+  </si>
+  <si>
+    <t>AFRO Population Reference</t>
+  </si>
+  <si>
+    <t>AFR Country profile</t>
+  </si>
+  <si>
+    <t>ZAF</t>
+  </si>
+  <si>
+    <t>NDVP</t>
+  </si>
+  <si>
+    <t>70 and older</t>
+  </si>
+  <si>
+    <t>BWA</t>
+  </si>
+  <si>
+    <t>NAM</t>
+  </si>
+  <si>
+    <t>GNQ</t>
   </si>
 </sst>
 </file>
@@ -463,8 +484,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{71D40A98-C907-4745-91C6-0D2B8B03B8CE}" name="Table1" displayName="Table1" ref="A1:G94" totalsRowShown="0">
-  <autoFilter ref="A1:G94" xr:uid="{71D40A98-C907-4745-91C6-0D2B8B03B8CE}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{71D40A98-C907-4745-91C6-0D2B8B03B8CE}" name="Table1" displayName="Table1" ref="A1:G98" totalsRowShown="0">
+  <autoFilter ref="A1:G98" xr:uid="{71D40A98-C907-4745-91C6-0D2B8B03B8CE}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{BFC132AF-A949-4BC1-9081-E1C9D167D5F9}" name="iso"/>
     <tableColumn id="2" xr3:uid="{B44CB430-2D1A-4E47-BBC0-8E86536BCED6}" name="target_mid"/>
@@ -775,9 +796,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9FEE266-E5C5-49B1-B023-B945AB1A2E2C}">
-  <dimension ref="A1:G94"/>
+  <dimension ref="A1:G98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="A99" sqref="A99"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -786,7 +809,7 @@
     <col min="4" max="4" width="13.5703125" style="2" customWidth="1"/>
     <col min="5" max="5" width="10.85546875" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.140625" customWidth="1"/>
+    <col min="7" max="7" width="25.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -803,7 +826,7 @@
         <v>37</v>
       </c>
       <c r="E1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F1" t="s">
         <v>102</v>
@@ -824,7 +847,7 @@
       </c>
       <c r="D2"/>
       <c r="E2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F2" t="s">
         <v>97</v>
@@ -838,22 +861,22 @@
         <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F3" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G3" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -861,22 +884,22 @@
         <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F4" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G4" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -884,16 +907,16 @@
         <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F5" t="s">
         <v>98</v>
@@ -904,25 +927,23 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" t="s">
-        <v>122</v>
-      </c>
-      <c r="C6" t="s">
-        <v>122</v>
-      </c>
-      <c r="D6" t="s">
-        <v>122</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C6">
+        <v>44742</v>
+      </c>
+      <c r="D6"/>
       <c r="E6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G6" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -930,13 +951,13 @@
         <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F7" t="s">
         <v>98</v>
@@ -950,16 +971,16 @@
         <v>43</v>
       </c>
       <c r="B8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F8" t="s">
         <v>98</v>
@@ -970,62 +991,61 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9">
-        <v>0.35</v>
-      </c>
-      <c r="C9">
-        <v>44742</v>
-      </c>
-      <c r="D9"/>
+        <v>41</v>
+      </c>
+      <c r="B9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D9" t="s">
+        <v>121</v>
+      </c>
+      <c r="E9" t="s">
+        <v>119</v>
+      </c>
       <c r="F9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G9" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10">
-        <v>0.28000000000000003</v>
+        <v>0.35</v>
       </c>
       <c r="C10">
         <v>44742</v>
       </c>
       <c r="D10"/>
-      <c r="E10" t="s">
-        <v>120</v>
-      </c>
       <c r="F10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G10" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" t="s">
-        <v>122</v>
-      </c>
-      <c r="C11" t="s">
-        <v>122</v>
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>0.7</v>
+      </c>
+      <c r="C11">
+        <v>44742</v>
       </c>
       <c r="D11"/>
-      <c r="E11" t="s">
-        <v>120</v>
-      </c>
       <c r="F11" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G11" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1033,22 +1053,22 @@
         <v>45</v>
       </c>
       <c r="B12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F12" t="s">
         <v>98</v>
       </c>
       <c r="G12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -1063,13 +1083,13 @@
       </c>
       <c r="D13"/>
       <c r="E13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F13" t="s">
         <v>97</v>
       </c>
       <c r="G13" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1084,34 +1104,31 @@
       </c>
       <c r="D14"/>
       <c r="E14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F14" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G14" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15">
-        <v>0.24</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="C15">
         <v>44742</v>
       </c>
       <c r="D15"/>
-      <c r="E15" t="s">
-        <v>120</v>
-      </c>
       <c r="F15" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G15" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1119,22 +1136,22 @@
         <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F16" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G16" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1142,40 +1159,43 @@
         <v>47</v>
       </c>
       <c r="B17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F17" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G17" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <v>0.7</v>
-      </c>
-      <c r="C18">
-        <v>44742</v>
+        <v>44</v>
+      </c>
+      <c r="B18" t="s">
+        <v>121</v>
+      </c>
+      <c r="C18" t="s">
+        <v>121</v>
       </c>
       <c r="D18"/>
+      <c r="E18" t="s">
+        <v>119</v>
+      </c>
       <c r="F18" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G18" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1183,16 +1203,16 @@
         <v>48</v>
       </c>
       <c r="B19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F19" t="s">
         <v>98</v>
@@ -1203,20 +1223,23 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B20">
-        <v>0.22500000000000001</v>
+        <v>0.23</v>
       </c>
       <c r="C20">
         <v>44742</v>
       </c>
       <c r="D20"/>
+      <c r="E20" t="s">
+        <v>119</v>
+      </c>
       <c r="F20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G20" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1231,13 +1254,13 @@
       </c>
       <c r="D21"/>
       <c r="E21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F21" t="s">
         <v>97</v>
       </c>
       <c r="G21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1245,16 +1268,16 @@
         <v>49</v>
       </c>
       <c r="B22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F22" t="s">
         <v>98</v>
@@ -1268,13 +1291,13 @@
         <v>50</v>
       </c>
       <c r="B23" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C23" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D23" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1282,19 +1305,19 @@
         <v>51</v>
       </c>
       <c r="B24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F24" t="s">
         <v>98</v>
       </c>
       <c r="G24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1302,66 +1325,58 @@
         <v>52</v>
       </c>
       <c r="B25" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C25" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D25" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E25" t="s">
-        <v>120</v>
-      </c>
-      <c r="F25" t="s">
-        <v>97</v>
-      </c>
-      <c r="G25" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>53</v>
-      </c>
-      <c r="B26" t="s">
-        <v>122</v>
-      </c>
-      <c r="C26" t="s">
-        <v>122</v>
-      </c>
-      <c r="D26" t="s">
-        <v>122</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="B26">
+        <v>0.18</v>
+      </c>
+      <c r="C26">
+        <v>44742</v>
+      </c>
+      <c r="D26"/>
       <c r="E26" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F26" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G26" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="B27">
-        <v>0.23</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="C27">
         <v>44742</v>
       </c>
       <c r="D27"/>
       <c r="E27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F27" t="s">
         <v>100</v>
       </c>
       <c r="G27" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1369,22 +1384,22 @@
         <v>54</v>
       </c>
       <c r="B28" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C28" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D28" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F28" t="s">
         <v>98</v>
       </c>
       <c r="G28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1399,13 +1414,13 @@
       </c>
       <c r="D29"/>
       <c r="E29" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F29" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G29" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1420,34 +1435,25 @@
       </c>
       <c r="D30"/>
       <c r="E30" t="s">
-        <v>120</v>
-      </c>
-      <c r="F30" t="s">
-        <v>97</v>
-      </c>
-      <c r="G30" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B31">
-        <v>0.18</v>
+        <v>0.3</v>
       </c>
       <c r="C31">
         <v>44742</v>
       </c>
       <c r="D31"/>
-      <c r="E31" t="s">
-        <v>120</v>
-      </c>
       <c r="F31" t="s">
         <v>98</v>
       </c>
       <c r="G31" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1455,22 +1461,22 @@
         <v>55</v>
       </c>
       <c r="B32" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C32" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D32" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E32" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F32" t="s">
         <v>98</v>
       </c>
       <c r="G32" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -1485,31 +1491,30 @@
       </c>
       <c r="D33"/>
       <c r="F33" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G33" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>18</v>
-      </c>
-      <c r="B34">
-        <v>0.17499999999999999</v>
-      </c>
-      <c r="C34">
-        <v>44742</v>
-      </c>
-      <c r="D34"/>
-      <c r="E34" t="s">
-        <v>120</v>
+        <v>64</v>
+      </c>
+      <c r="B34" t="s">
+        <v>121</v>
+      </c>
+      <c r="C34" t="s">
+        <v>121</v>
+      </c>
+      <c r="D34" t="s">
+        <v>121</v>
       </c>
       <c r="F34" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G34" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -1517,19 +1522,19 @@
         <v>56</v>
       </c>
       <c r="B35" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C35" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D35" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F35" t="s">
         <v>98</v>
       </c>
       <c r="G35" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -1544,13 +1549,13 @@
       </c>
       <c r="D36"/>
       <c r="E36" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F36" t="s">
         <v>100</v>
       </c>
       <c r="G36" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -1558,13 +1563,13 @@
         <v>57</v>
       </c>
       <c r="B37" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C37" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D37" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F37" t="s">
         <v>98</v>
@@ -1578,13 +1583,13 @@
         <v>58</v>
       </c>
       <c r="B38" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C38" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D38" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F38" t="s">
         <v>98</v>
@@ -1598,13 +1603,13 @@
         <v>59</v>
       </c>
       <c r="B39" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C39" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D39" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F39" t="s">
         <v>98</v>
@@ -1615,20 +1620,23 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="B40">
-        <v>0.3</v>
+        <v>0.16833000000000001</v>
       </c>
       <c r="C40">
         <v>44742</v>
       </c>
       <c r="D40"/>
+      <c r="E40" t="s">
+        <v>119</v>
+      </c>
       <c r="F40" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G40" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -1636,22 +1644,22 @@
         <v>60</v>
       </c>
       <c r="B41" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C41" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D41" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E41" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F41" t="s">
         <v>98</v>
       </c>
       <c r="G41" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -1659,19 +1667,19 @@
         <v>61</v>
       </c>
       <c r="B42" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C42" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D42" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F42" t="s">
         <v>98</v>
       </c>
       <c r="G42" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -1679,19 +1687,19 @@
         <v>62</v>
       </c>
       <c r="B43" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C43" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D43" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F43" t="s">
         <v>98</v>
       </c>
       <c r="G43" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -1699,42 +1707,43 @@
         <v>63</v>
       </c>
       <c r="B44" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C44" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D44" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E44" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F44" t="s">
         <v>98</v>
       </c>
       <c r="G44" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>64</v>
-      </c>
-      <c r="B45" t="s">
-        <v>122</v>
-      </c>
-      <c r="C45" t="s">
-        <v>122</v>
-      </c>
-      <c r="D45" t="s">
-        <v>122</v>
+        <v>22</v>
+      </c>
+      <c r="B45">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="C45">
+        <v>44742</v>
+      </c>
+      <c r="D45"/>
+      <c r="E45" t="s">
+        <v>119</v>
       </c>
       <c r="F45" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G45" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -1742,40 +1751,42 @@
         <v>65</v>
       </c>
       <c r="B46" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C46" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D46" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F46" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G46" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>23</v>
-      </c>
-      <c r="B47">
-        <v>0.16833000000000001</v>
-      </c>
-      <c r="C47">
-        <v>44742</v>
-      </c>
-      <c r="D47"/>
+        <v>72</v>
+      </c>
+      <c r="B47" t="s">
+        <v>121</v>
+      </c>
+      <c r="C47" t="s">
+        <v>121</v>
+      </c>
+      <c r="D47" t="s">
+        <v>121</v>
+      </c>
       <c r="E47" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F47" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G47" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -1790,10 +1801,10 @@
       </c>
       <c r="D48"/>
       <c r="F48" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G48" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -1801,13 +1812,13 @@
         <v>66</v>
       </c>
       <c r="B49" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C49" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D49" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F49" t="s">
         <v>98</v>
@@ -1818,23 +1829,20 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B50">
-        <v>0.23499999999999999</v>
+        <v>0.214</v>
       </c>
       <c r="C50">
         <v>44742</v>
       </c>
       <c r="D50"/>
-      <c r="E50" t="s">
-        <v>120</v>
-      </c>
       <c r="F50" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G50" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -1842,22 +1850,22 @@
         <v>67</v>
       </c>
       <c r="B51" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C51" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D51" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E51" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F51" t="s">
         <v>97</v>
       </c>
       <c r="G51" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -1865,19 +1873,19 @@
         <v>68</v>
       </c>
       <c r="B52" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C52" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D52" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F52" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G52" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -1885,22 +1893,22 @@
         <v>69</v>
       </c>
       <c r="B53" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C53" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D53" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E53" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F53" t="s">
         <v>97</v>
       </c>
       <c r="G53" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -1908,22 +1916,22 @@
         <v>70</v>
       </c>
       <c r="B54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E54" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F54" t="s">
         <v>97</v>
       </c>
       <c r="G54" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -1931,45 +1939,42 @@
         <v>71</v>
       </c>
       <c r="B55" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C55" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D55" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E55" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F55" t="s">
         <v>100</v>
       </c>
       <c r="G55" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>72</v>
-      </c>
-      <c r="B56" t="s">
-        <v>122</v>
-      </c>
-      <c r="C56" t="s">
-        <v>122</v>
-      </c>
-      <c r="D56" t="s">
-        <v>122</v>
-      </c>
-      <c r="E56" t="s">
-        <v>120</v>
+        <v>25</v>
+      </c>
+      <c r="B56">
+        <v>0.18149999999999999</v>
+      </c>
+      <c r="C56">
+        <v>44742</v>
+      </c>
+      <c r="D56">
+        <v>750000</v>
       </c>
       <c r="F56" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G56" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -1977,16 +1982,16 @@
         <v>73</v>
       </c>
       <c r="B57" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C57" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D57" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E57" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F57" t="s">
         <v>98</v>
@@ -2000,13 +2005,13 @@
         <v>74</v>
       </c>
       <c r="B58" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C58" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D58" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F58" t="s">
         <v>101</v>
@@ -2020,13 +2025,13 @@
         <v>75</v>
       </c>
       <c r="B59" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C59" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D59" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F59" t="s">
         <v>98</v>
@@ -2037,40 +2042,44 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B60">
-        <v>0.214</v>
+        <v>0.26500000000000001</v>
       </c>
       <c r="C60">
         <v>44742</v>
       </c>
       <c r="D60"/>
+      <c r="E60" t="s">
+        <v>119</v>
+      </c>
       <c r="F60" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G60" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B61">
-        <v>0.18149999999999999</v>
+        <v>0.25</v>
       </c>
       <c r="C61">
         <v>44742</v>
       </c>
-      <c r="D61">
-        <v>750000</v>
+      <c r="D61"/>
+      <c r="E61" t="s">
+        <v>119</v>
       </c>
       <c r="F61" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G61" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -2078,22 +2087,22 @@
         <v>76</v>
       </c>
       <c r="B62" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C62" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D62" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E62" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F62" t="s">
         <v>98</v>
       </c>
       <c r="G62" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -2101,13 +2110,13 @@
         <v>77</v>
       </c>
       <c r="B63" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C63" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D63" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F63" t="s">
         <v>98</v>
@@ -2131,7 +2140,7 @@
         <v>99</v>
       </c>
       <c r="G64" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -2139,22 +2148,22 @@
         <v>78</v>
       </c>
       <c r="B65" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C65" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D65" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E65" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F65" t="s">
         <v>98</v>
       </c>
       <c r="G65" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -2162,22 +2171,22 @@
         <v>79</v>
       </c>
       <c r="B66" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C66" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D66" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E66" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F66" t="s">
         <v>98</v>
       </c>
       <c r="G66" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -2185,22 +2194,22 @@
         <v>80</v>
       </c>
       <c r="B67" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C67" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D67" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E67" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F67" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G67" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -2208,19 +2217,19 @@
         <v>81</v>
       </c>
       <c r="B68" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C68" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D68" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F68" t="s">
         <v>100</v>
       </c>
       <c r="G68" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -2228,16 +2237,16 @@
         <v>82</v>
       </c>
       <c r="B69" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C69" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D69" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E69" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F69" t="s">
         <v>98</v>
@@ -2251,19 +2260,19 @@
         <v>83</v>
       </c>
       <c r="B70" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C70" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D70" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F70" t="s">
         <v>98</v>
       </c>
       <c r="G70" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -2271,43 +2280,45 @@
         <v>84</v>
       </c>
       <c r="B71" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C71" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D71" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E71" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F71" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G71" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>8</v>
-      </c>
-      <c r="B72">
-        <v>0.26500000000000001</v>
-      </c>
-      <c r="C72">
-        <v>44742</v>
-      </c>
-      <c r="D72"/>
+        <v>53</v>
+      </c>
+      <c r="B72" t="s">
+        <v>121</v>
+      </c>
+      <c r="C72" t="s">
+        <v>121</v>
+      </c>
+      <c r="D72" t="s">
+        <v>121</v>
+      </c>
       <c r="E72" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F72" t="s">
         <v>98</v>
       </c>
       <c r="G72" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -2322,13 +2333,13 @@
       </c>
       <c r="D73"/>
       <c r="E73" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F73" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="G73" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -2343,13 +2354,13 @@
       </c>
       <c r="D74"/>
       <c r="E74" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F74" t="s">
         <v>101</v>
       </c>
       <c r="G74" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -2364,7 +2375,7 @@
       </c>
       <c r="D75"/>
       <c r="E75" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F75" t="s">
         <v>98</v>
@@ -2375,23 +2386,23 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B76">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="C76">
         <v>44742</v>
       </c>
       <c r="D76"/>
       <c r="E76" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F76" t="s">
         <v>100</v>
       </c>
       <c r="G76" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -2399,16 +2410,16 @@
         <v>85</v>
       </c>
       <c r="B77" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C77" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D77" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E77" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F77" t="s">
         <v>98</v>
@@ -2432,7 +2443,7 @@
         <v>99</v>
       </c>
       <c r="G78" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -2450,7 +2461,7 @@
         <v>101</v>
       </c>
       <c r="G79" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -2458,19 +2469,19 @@
         <v>86</v>
       </c>
       <c r="B80" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C80" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D80" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F80" t="s">
         <v>98</v>
       </c>
       <c r="G80" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -2478,13 +2489,13 @@
         <v>87</v>
       </c>
       <c r="B81" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C81" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D81" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F81" t="s">
         <v>98</v>
@@ -2498,19 +2509,19 @@
         <v>88</v>
       </c>
       <c r="B82" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C82" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D82" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F82" t="s">
         <v>97</v>
       </c>
       <c r="G82" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -2518,22 +2529,22 @@
         <v>89</v>
       </c>
       <c r="B83" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C83" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D83" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E83" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F83" t="s">
         <v>100</v>
       </c>
       <c r="G83" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -2541,22 +2552,22 @@
         <v>90</v>
       </c>
       <c r="B84" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C84" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D84" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E84" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F84" t="s">
         <v>100</v>
       </c>
       <c r="G84" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -2564,37 +2575,37 @@
         <v>91</v>
       </c>
       <c r="B85" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C85" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D85" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F85" t="s">
         <v>98</v>
       </c>
       <c r="G85" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B86">
-        <v>0.33</v>
+        <v>0.4667</v>
       </c>
       <c r="C86">
         <v>44742</v>
       </c>
       <c r="D86"/>
       <c r="F86" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G86" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -2602,37 +2613,37 @@
         <v>92</v>
       </c>
       <c r="B87" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C87" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D87" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F87" t="s">
         <v>98</v>
       </c>
       <c r="G87" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B88">
-        <v>0.4667</v>
+        <v>0.33</v>
       </c>
       <c r="C88">
         <v>44742</v>
       </c>
       <c r="D88"/>
       <c r="F88" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G88" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -2640,19 +2651,19 @@
         <v>93</v>
       </c>
       <c r="B89" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C89" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D89" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F89" t="s">
         <v>98</v>
       </c>
       <c r="G89" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -2660,19 +2671,19 @@
         <v>94</v>
       </c>
       <c r="B90" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C90" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D90" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F90" t="s">
         <v>101</v>
       </c>
       <c r="G90" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -2680,19 +2691,19 @@
         <v>95</v>
       </c>
       <c r="B91" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C91" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D91" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F91" t="s">
         <v>100</v>
       </c>
       <c r="G91" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -2707,7 +2718,7 @@
       </c>
       <c r="D92"/>
       <c r="E92" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F92" t="s">
         <v>98</v>
@@ -2718,46 +2729,90 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>34</v>
-      </c>
-      <c r="B93">
-        <v>0.115</v>
-      </c>
-      <c r="C93">
-        <v>44742</v>
-      </c>
-      <c r="D93"/>
-      <c r="E93" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="F93" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G93" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
+        <v>34</v>
+      </c>
+      <c r="B94">
+        <v>0.115</v>
+      </c>
+      <c r="C94">
+        <v>44742</v>
+      </c>
+      <c r="D94"/>
+      <c r="E94" t="s">
+        <v>119</v>
+      </c>
+      <c r="F94" t="s">
+        <v>100</v>
+      </c>
+      <c r="G94" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
         <v>96</v>
       </c>
-      <c r="B94" t="s">
-        <v>122</v>
-      </c>
-      <c r="C94" t="s">
-        <v>122</v>
-      </c>
-      <c r="D94" t="s">
-        <v>122</v>
-      </c>
-      <c r="E94" t="s">
-        <v>120</v>
-      </c>
-      <c r="F94" t="s">
-        <v>97</v>
-      </c>
-      <c r="G94" t="s">
-        <v>105</v>
+      <c r="B95" t="s">
+        <v>121</v>
+      </c>
+      <c r="C95" t="s">
+        <v>121</v>
+      </c>
+      <c r="D95" t="s">
+        <v>121</v>
+      </c>
+      <c r="E95" t="s">
+        <v>119</v>
+      </c>
+      <c r="F95" t="s">
+        <v>98</v>
+      </c>
+      <c r="G95" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>128</v>
+      </c>
+      <c r="F96" t="s">
+        <v>100</v>
+      </c>
+      <c r="G96" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>129</v>
+      </c>
+      <c r="F97" t="s">
+        <v>98</v>
+      </c>
+      <c r="G97" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>130</v>
+      </c>
+      <c r="F98" t="s">
+        <v>100</v>
+      </c>
+      <c r="G98" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -2778,6 +2833,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -2786,7 +2847,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001F87334A6AC30D4EA6021977FA7E2445" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="504bd14f85abc770ed43885d52246388">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b370a6fa-a798-42e0-969d-19c284d8683f" xmlns:ns3="62ca1376-8bea-4949-825e-fec085c3924e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="823b5556cd3b486fc41cc4ce5ea1e5e3" ns2:_="" ns3:_="">
     <xsd:import namespace="b370a6fa-a798-42e0-969d-19c284d8683f"/>
@@ -2983,13 +3044,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B38691F2-7C3C-45D9-A92D-DA4AC2637426}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45727BA0-B405-4663-9BCB-94D3BF8DEB60}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -2997,7 +3061,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{69C37DFD-2EFA-4F90-80F6-395E655C9B7A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3014,13 +3078,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B38691F2-7C3C-45D9-A92D-DA4AC2637426}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/_input/static/base_adhoc.xlsx
+++ b/data/_input/static/base_adhoc.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dalberg\Documents\GitHub\covid19_vaccination_data\data\_input\static\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://worldhealthorg.sharepoint.com/sites/COVID19VaccineDeliveryFacility-DataAnalyticsandMonitoring/Shared Documents/Data, Analytics, and Monitoring/02 Analysis/03 CCAP data files/220428/input/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE23FC7-8005-4119-8700-EBD367B8D940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{DE7D95E1-C864-4406-8C11-8A3892144999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E5805243-8F68-44C4-90A8-F0723143FA46}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{43689874-1506-456E-964F-93125D26FA22}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="124">
   <si>
     <t>PNG</t>
   </si>
@@ -357,6 +357,9 @@
     <t>eJRF - multiple</t>
   </si>
   <si>
+    <t>Region/IST</t>
+  </si>
+  <si>
     <t>Region</t>
   </si>
   <si>
@@ -403,30 +406,6 @@
   </si>
   <si>
     <t>jj_policy</t>
-  </si>
-  <si>
-    <t>AFRO Population Reference</t>
-  </si>
-  <si>
-    <t>AFR Country profile</t>
-  </si>
-  <si>
-    <t>ZAF</t>
-  </si>
-  <si>
-    <t>NDVP</t>
-  </si>
-  <si>
-    <t>70 and older</t>
-  </si>
-  <si>
-    <t>BWA</t>
-  </si>
-  <si>
-    <t>NAM</t>
-  </si>
-  <si>
-    <t>GNQ</t>
   </si>
 </sst>
 </file>
@@ -484,8 +463,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{71D40A98-C907-4745-91C6-0D2B8B03B8CE}" name="Table1" displayName="Table1" ref="A1:G98" totalsRowShown="0">
-  <autoFilter ref="A1:G98" xr:uid="{71D40A98-C907-4745-91C6-0D2B8B03B8CE}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{71D40A98-C907-4745-91C6-0D2B8B03B8CE}" name="Table1" displayName="Table1" ref="A1:G94" totalsRowShown="0">
+  <autoFilter ref="A1:G94" xr:uid="{71D40A98-C907-4745-91C6-0D2B8B03B8CE}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{BFC132AF-A949-4BC1-9081-E1C9D167D5F9}" name="iso"/>
     <tableColumn id="2" xr3:uid="{B44CB430-2D1A-4E47-BBC0-8E86536BCED6}" name="target_mid"/>
@@ -796,11 +775,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9FEE266-E5C5-49B1-B023-B945AB1A2E2C}">
-  <dimension ref="A1:G98"/>
+  <dimension ref="A1:G94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="A99" sqref="A99"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -809,7 +786,7 @@
     <col min="4" max="4" width="13.5703125" style="2" customWidth="1"/>
     <col min="5" max="5" width="10.85546875" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.85546875" customWidth="1"/>
+    <col min="7" max="7" width="24.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -826,7 +803,7 @@
         <v>37</v>
       </c>
       <c r="E1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F1" t="s">
         <v>102</v>
@@ -847,7 +824,7 @@
       </c>
       <c r="D2"/>
       <c r="E2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F2" t="s">
         <v>97</v>
@@ -861,22 +838,22 @@
         <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G3" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -884,22 +861,22 @@
         <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G4" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -907,16 +884,16 @@
         <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F5" t="s">
         <v>98</v>
@@ -927,23 +904,25 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="C6">
-        <v>44742</v>
-      </c>
-      <c r="D6"/>
+        <v>41</v>
+      </c>
+      <c r="B6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" t="s">
+        <v>122</v>
+      </c>
       <c r="E6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G6" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -951,13 +930,13 @@
         <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F7" t="s">
         <v>98</v>
@@ -971,16 +950,16 @@
         <v>43</v>
       </c>
       <c r="B8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F8" t="s">
         <v>98</v>
@@ -991,61 +970,62 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" t="s">
-        <v>121</v>
-      </c>
-      <c r="C9" t="s">
-        <v>121</v>
-      </c>
-      <c r="D9" t="s">
-        <v>121</v>
-      </c>
-      <c r="E9" t="s">
-        <v>119</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>0.35</v>
+      </c>
+      <c r="C9">
+        <v>44742</v>
+      </c>
+      <c r="D9"/>
       <c r="F9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G9" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.35</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="C10">
         <v>44742</v>
       </c>
       <c r="D10"/>
+      <c r="E10" t="s">
+        <v>120</v>
+      </c>
       <c r="F10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G10" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>0.7</v>
-      </c>
-      <c r="C11">
-        <v>44742</v>
+        <v>44</v>
+      </c>
+      <c r="B11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11" t="s">
+        <v>122</v>
       </c>
       <c r="D11"/>
+      <c r="E11" t="s">
+        <v>120</v>
+      </c>
       <c r="F11" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G11" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1053,22 +1033,22 @@
         <v>45</v>
       </c>
       <c r="B12" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C12" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D12" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E12" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F12" t="s">
         <v>98</v>
       </c>
       <c r="G12" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -1083,13 +1063,13 @@
       </c>
       <c r="D13"/>
       <c r="E13" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F13" t="s">
         <v>97</v>
       </c>
       <c r="G13" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1104,31 +1084,34 @@
       </c>
       <c r="D14"/>
       <c r="E14" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F14" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G14" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15">
-        <v>0.22500000000000001</v>
+        <v>0.24</v>
       </c>
       <c r="C15">
         <v>44742</v>
       </c>
       <c r="D15"/>
+      <c r="E15" t="s">
+        <v>120</v>
+      </c>
       <c r="F15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G15" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1136,22 +1119,22 @@
         <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C16" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D16" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E16" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G16" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1159,43 +1142,40 @@
         <v>47</v>
       </c>
       <c r="B17" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C17" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D17" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E17" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G17" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>44</v>
-      </c>
-      <c r="B18" t="s">
-        <v>121</v>
-      </c>
-      <c r="C18" t="s">
-        <v>121</v>
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>0.7</v>
+      </c>
+      <c r="C18">
+        <v>44742</v>
       </c>
       <c r="D18"/>
-      <c r="E18" t="s">
-        <v>119</v>
-      </c>
       <c r="F18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G18" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1203,16 +1183,16 @@
         <v>48</v>
       </c>
       <c r="B19" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C19" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D19" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E19" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F19" t="s">
         <v>98</v>
@@ -1223,23 +1203,20 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B20">
-        <v>0.23</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="C20">
         <v>44742</v>
       </c>
       <c r="D20"/>
-      <c r="E20" t="s">
-        <v>119</v>
-      </c>
       <c r="F20" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G20" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1254,13 +1231,13 @@
       </c>
       <c r="D21"/>
       <c r="E21" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F21" t="s">
         <v>97</v>
       </c>
       <c r="G21" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1268,16 +1245,16 @@
         <v>49</v>
       </c>
       <c r="B22" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C22" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D22" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E22" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F22" t="s">
         <v>98</v>
@@ -1291,13 +1268,13 @@
         <v>50</v>
       </c>
       <c r="B23" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C23" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D23" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1305,19 +1282,19 @@
         <v>51</v>
       </c>
       <c r="B24" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C24" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D24" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F24" t="s">
         <v>98</v>
       </c>
       <c r="G24" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1325,58 +1302,66 @@
         <v>52</v>
       </c>
       <c r="B25" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C25" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D25" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E25" t="s">
-        <v>119</v>
+        <v>120</v>
+      </c>
+      <c r="F25" t="s">
+        <v>97</v>
+      </c>
+      <c r="G25" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26">
-        <v>0.18</v>
-      </c>
-      <c r="C26">
-        <v>44742</v>
-      </c>
-      <c r="D26"/>
+        <v>53</v>
+      </c>
+      <c r="B26" t="s">
+        <v>122</v>
+      </c>
+      <c r="C26" t="s">
+        <v>122</v>
+      </c>
+      <c r="D26" t="s">
+        <v>122</v>
+      </c>
       <c r="E26" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G26" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="B27">
-        <v>0.17499999999999999</v>
+        <v>0.23</v>
       </c>
       <c r="C27">
         <v>44742</v>
       </c>
       <c r="D27"/>
       <c r="E27" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F27" t="s">
         <v>100</v>
       </c>
       <c r="G27" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1384,22 +1369,22 @@
         <v>54</v>
       </c>
       <c r="B28" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C28" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D28" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E28" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F28" t="s">
         <v>98</v>
       </c>
       <c r="G28" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1414,13 +1399,13 @@
       </c>
       <c r="D29"/>
       <c r="E29" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F29" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G29" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1435,25 +1420,34 @@
       </c>
       <c r="D30"/>
       <c r="E30" t="s">
-        <v>119</v>
+        <v>120</v>
+      </c>
+      <c r="F30" t="s">
+        <v>97</v>
+      </c>
+      <c r="G30" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B31">
-        <v>0.3</v>
+        <v>0.18</v>
       </c>
       <c r="C31">
         <v>44742</v>
       </c>
       <c r="D31"/>
+      <c r="E31" t="s">
+        <v>120</v>
+      </c>
       <c r="F31" t="s">
         <v>98</v>
       </c>
       <c r="G31" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1461,22 +1455,22 @@
         <v>55</v>
       </c>
       <c r="B32" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C32" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D32" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E32" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F32" t="s">
         <v>98</v>
       </c>
       <c r="G32" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -1491,30 +1485,31 @@
       </c>
       <c r="D33"/>
       <c r="F33" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G33" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>64</v>
-      </c>
-      <c r="B34" t="s">
-        <v>121</v>
-      </c>
-      <c r="C34" t="s">
-        <v>121</v>
-      </c>
-      <c r="D34" t="s">
-        <v>121</v>
+        <v>18</v>
+      </c>
+      <c r="B34">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="C34">
+        <v>44742</v>
+      </c>
+      <c r="D34"/>
+      <c r="E34" t="s">
+        <v>120</v>
       </c>
       <c r="F34" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G34" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -1522,19 +1517,19 @@
         <v>56</v>
       </c>
       <c r="B35" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C35" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D35" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F35" t="s">
         <v>98</v>
       </c>
       <c r="G35" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -1549,13 +1544,13 @@
       </c>
       <c r="D36"/>
       <c r="E36" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F36" t="s">
         <v>100</v>
       </c>
       <c r="G36" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -1563,13 +1558,13 @@
         <v>57</v>
       </c>
       <c r="B37" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C37" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D37" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F37" t="s">
         <v>98</v>
@@ -1583,13 +1578,13 @@
         <v>58</v>
       </c>
       <c r="B38" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C38" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D38" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F38" t="s">
         <v>98</v>
@@ -1603,13 +1598,13 @@
         <v>59</v>
       </c>
       <c r="B39" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C39" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D39" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F39" t="s">
         <v>98</v>
@@ -1620,23 +1615,20 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="B40">
-        <v>0.16833000000000001</v>
+        <v>0.3</v>
       </c>
       <c r="C40">
         <v>44742</v>
       </c>
       <c r="D40"/>
-      <c r="E40" t="s">
-        <v>119</v>
-      </c>
       <c r="F40" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G40" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -1644,22 +1636,22 @@
         <v>60</v>
       </c>
       <c r="B41" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C41" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D41" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E41" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F41" t="s">
         <v>98</v>
       </c>
       <c r="G41" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -1667,19 +1659,19 @@
         <v>61</v>
       </c>
       <c r="B42" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C42" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D42" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F42" t="s">
         <v>98</v>
       </c>
       <c r="G42" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -1687,19 +1679,19 @@
         <v>62</v>
       </c>
       <c r="B43" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C43" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D43" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F43" t="s">
         <v>98</v>
       </c>
       <c r="G43" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -1707,43 +1699,42 @@
         <v>63</v>
       </c>
       <c r="B44" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C44" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D44" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E44" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F44" t="s">
         <v>98</v>
       </c>
       <c r="G44" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>22</v>
-      </c>
-      <c r="B45">
-        <v>0.23499999999999999</v>
-      </c>
-      <c r="C45">
-        <v>44742</v>
-      </c>
-      <c r="D45"/>
-      <c r="E45" t="s">
-        <v>119</v>
+        <v>64</v>
+      </c>
+      <c r="B45" t="s">
+        <v>122</v>
+      </c>
+      <c r="C45" t="s">
+        <v>122</v>
+      </c>
+      <c r="D45" t="s">
+        <v>122</v>
       </c>
       <c r="F45" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G45" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -1751,42 +1742,40 @@
         <v>65</v>
       </c>
       <c r="B46" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C46" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D46" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F46" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G46" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>72</v>
-      </c>
-      <c r="B47" t="s">
-        <v>121</v>
-      </c>
-      <c r="C47" t="s">
-        <v>121</v>
-      </c>
-      <c r="D47" t="s">
-        <v>121</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B47">
+        <v>0.16833000000000001</v>
+      </c>
+      <c r="C47">
+        <v>44742</v>
+      </c>
+      <c r="D47"/>
       <c r="E47" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F47" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G47" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -1801,10 +1790,10 @@
       </c>
       <c r="D48"/>
       <c r="F48" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G48" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -1812,13 +1801,13 @@
         <v>66</v>
       </c>
       <c r="B49" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C49" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D49" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F49" t="s">
         <v>98</v>
@@ -1829,20 +1818,23 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B50">
-        <v>0.214</v>
+        <v>0.23499999999999999</v>
       </c>
       <c r="C50">
         <v>44742</v>
       </c>
       <c r="D50"/>
+      <c r="E50" t="s">
+        <v>120</v>
+      </c>
       <c r="F50" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G50" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -1850,22 +1842,22 @@
         <v>67</v>
       </c>
       <c r="B51" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C51" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D51" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E51" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F51" t="s">
         <v>97</v>
       </c>
       <c r="G51" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -1873,19 +1865,19 @@
         <v>68</v>
       </c>
       <c r="B52" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C52" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D52" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F52" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G52" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -1893,22 +1885,22 @@
         <v>69</v>
       </c>
       <c r="B53" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C53" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D53" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E53" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F53" t="s">
         <v>97</v>
       </c>
       <c r="G53" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -1916,22 +1908,22 @@
         <v>70</v>
       </c>
       <c r="B54" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C54" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D54" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E54" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F54" t="s">
         <v>97</v>
       </c>
       <c r="G54" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -1939,42 +1931,45 @@
         <v>71</v>
       </c>
       <c r="B55" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C55" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D55" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E55" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F55" t="s">
         <v>100</v>
       </c>
       <c r="G55" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>25</v>
-      </c>
-      <c r="B56">
-        <v>0.18149999999999999</v>
-      </c>
-      <c r="C56">
-        <v>44742</v>
-      </c>
-      <c r="D56">
-        <v>750000</v>
+        <v>72</v>
+      </c>
+      <c r="B56" t="s">
+        <v>122</v>
+      </c>
+      <c r="C56" t="s">
+        <v>122</v>
+      </c>
+      <c r="D56" t="s">
+        <v>122</v>
+      </c>
+      <c r="E56" t="s">
+        <v>120</v>
       </c>
       <c r="F56" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G56" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -1982,16 +1977,16 @@
         <v>73</v>
       </c>
       <c r="B57" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C57" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D57" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E57" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F57" t="s">
         <v>98</v>
@@ -2005,13 +2000,13 @@
         <v>74</v>
       </c>
       <c r="B58" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C58" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D58" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F58" t="s">
         <v>101</v>
@@ -2025,13 +2020,13 @@
         <v>75</v>
       </c>
       <c r="B59" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C59" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D59" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F59" t="s">
         <v>98</v>
@@ -2042,44 +2037,40 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B60">
-        <v>0.26500000000000001</v>
+        <v>0.214</v>
       </c>
       <c r="C60">
         <v>44742</v>
       </c>
       <c r="D60"/>
-      <c r="E60" t="s">
-        <v>119</v>
-      </c>
       <c r="F60" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G60" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B61">
-        <v>0.25</v>
+        <v>0.18149999999999999</v>
       </c>
       <c r="C61">
         <v>44742</v>
       </c>
-      <c r="D61"/>
-      <c r="E61" t="s">
-        <v>119</v>
+      <c r="D61">
+        <v>750000</v>
       </c>
       <c r="F61" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G61" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -2087,22 +2078,22 @@
         <v>76</v>
       </c>
       <c r="B62" t="s">
+        <v>122</v>
+      </c>
+      <c r="C62" t="s">
+        <v>122</v>
+      </c>
+      <c r="D62" t="s">
+        <v>122</v>
+      </c>
+      <c r="E62" t="s">
         <v>121</v>
       </c>
-      <c r="C62" t="s">
-        <v>121</v>
-      </c>
-      <c r="D62" t="s">
-        <v>121</v>
-      </c>
-      <c r="E62" t="s">
-        <v>120</v>
-      </c>
       <c r="F62" t="s">
         <v>98</v>
       </c>
       <c r="G62" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -2110,13 +2101,13 @@
         <v>77</v>
       </c>
       <c r="B63" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C63" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D63" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F63" t="s">
         <v>98</v>
@@ -2140,7 +2131,7 @@
         <v>99</v>
       </c>
       <c r="G64" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -2148,22 +2139,22 @@
         <v>78</v>
       </c>
       <c r="B65" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C65" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D65" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E65" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F65" t="s">
         <v>98</v>
       </c>
       <c r="G65" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -2171,22 +2162,22 @@
         <v>79</v>
       </c>
       <c r="B66" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C66" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D66" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E66" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F66" t="s">
         <v>98</v>
       </c>
       <c r="G66" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -2194,22 +2185,22 @@
         <v>80</v>
       </c>
       <c r="B67" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C67" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D67" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E67" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F67" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G67" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -2217,19 +2208,19 @@
         <v>81</v>
       </c>
       <c r="B68" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C68" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D68" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F68" t="s">
         <v>100</v>
       </c>
       <c r="G68" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -2237,16 +2228,16 @@
         <v>82</v>
       </c>
       <c r="B69" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C69" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D69" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E69" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F69" t="s">
         <v>98</v>
@@ -2260,19 +2251,19 @@
         <v>83</v>
       </c>
       <c r="B70" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C70" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D70" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F70" t="s">
         <v>98</v>
       </c>
       <c r="G70" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -2280,45 +2271,43 @@
         <v>84</v>
       </c>
       <c r="B71" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C71" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D71" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E71" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F71" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G71" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>53</v>
-      </c>
-      <c r="B72" t="s">
-        <v>121</v>
-      </c>
-      <c r="C72" t="s">
-        <v>121</v>
-      </c>
-      <c r="D72" t="s">
-        <v>121</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="B72">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="C72">
+        <v>44742</v>
+      </c>
+      <c r="D72"/>
       <c r="E72" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F72" t="s">
         <v>98</v>
       </c>
       <c r="G72" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -2333,13 +2322,13 @@
       </c>
       <c r="D73"/>
       <c r="E73" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F73" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="G73" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -2354,13 +2343,13 @@
       </c>
       <c r="D74"/>
       <c r="E74" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F74" t="s">
         <v>101</v>
       </c>
       <c r="G74" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -2375,7 +2364,7 @@
       </c>
       <c r="D75"/>
       <c r="E75" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F75" t="s">
         <v>98</v>
@@ -2386,23 +2375,23 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B76">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="C76">
         <v>44742</v>
       </c>
       <c r="D76"/>
       <c r="E76" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F76" t="s">
         <v>100</v>
       </c>
       <c r="G76" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -2410,16 +2399,16 @@
         <v>85</v>
       </c>
       <c r="B77" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C77" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D77" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E77" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F77" t="s">
         <v>98</v>
@@ -2443,7 +2432,7 @@
         <v>99</v>
       </c>
       <c r="G78" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -2461,7 +2450,7 @@
         <v>101</v>
       </c>
       <c r="G79" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -2469,19 +2458,19 @@
         <v>86</v>
       </c>
       <c r="B80" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C80" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D80" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F80" t="s">
         <v>98</v>
       </c>
       <c r="G80" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -2489,13 +2478,13 @@
         <v>87</v>
       </c>
       <c r="B81" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C81" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D81" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F81" t="s">
         <v>98</v>
@@ -2509,19 +2498,19 @@
         <v>88</v>
       </c>
       <c r="B82" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C82" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D82" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F82" t="s">
         <v>97</v>
       </c>
       <c r="G82" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -2529,22 +2518,22 @@
         <v>89</v>
       </c>
       <c r="B83" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C83" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D83" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E83" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F83" t="s">
         <v>100</v>
       </c>
       <c r="G83" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -2552,22 +2541,22 @@
         <v>90</v>
       </c>
       <c r="B84" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C84" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D84" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E84" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F84" t="s">
         <v>100</v>
       </c>
       <c r="G84" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -2575,37 +2564,37 @@
         <v>91</v>
       </c>
       <c r="B85" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C85" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D85" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F85" t="s">
         <v>98</v>
       </c>
       <c r="G85" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B86">
-        <v>0.4667</v>
+        <v>0.33</v>
       </c>
       <c r="C86">
         <v>44742</v>
       </c>
       <c r="D86"/>
       <c r="F86" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G86" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -2613,37 +2602,37 @@
         <v>92</v>
       </c>
       <c r="B87" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C87" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D87" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F87" t="s">
         <v>98</v>
       </c>
       <c r="G87" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B88">
-        <v>0.33</v>
+        <v>0.4667</v>
       </c>
       <c r="C88">
         <v>44742</v>
       </c>
       <c r="D88"/>
       <c r="F88" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G88" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -2651,19 +2640,19 @@
         <v>93</v>
       </c>
       <c r="B89" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C89" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D89" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F89" t="s">
         <v>98</v>
       </c>
       <c r="G89" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -2671,19 +2660,19 @@
         <v>94</v>
       </c>
       <c r="B90" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C90" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D90" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F90" t="s">
         <v>101</v>
       </c>
       <c r="G90" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -2691,19 +2680,19 @@
         <v>95</v>
       </c>
       <c r="B91" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C91" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D91" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F91" t="s">
         <v>100</v>
       </c>
       <c r="G91" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -2718,7 +2707,7 @@
       </c>
       <c r="D92"/>
       <c r="E92" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F92" t="s">
         <v>98</v>
@@ -2729,90 +2718,46 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>125</v>
+        <v>34</v>
+      </c>
+      <c r="B93">
+        <v>0.115</v>
+      </c>
+      <c r="C93">
+        <v>44742</v>
+      </c>
+      <c r="D93"/>
+      <c r="E93" t="s">
+        <v>120</v>
       </c>
       <c r="F93" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G93" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>34</v>
-      </c>
-      <c r="B94">
-        <v>0.115</v>
-      </c>
-      <c r="C94">
-        <v>44742</v>
-      </c>
-      <c r="D94"/>
+        <v>96</v>
+      </c>
+      <c r="B94" t="s">
+        <v>122</v>
+      </c>
+      <c r="C94" t="s">
+        <v>122</v>
+      </c>
+      <c r="D94" t="s">
+        <v>122</v>
+      </c>
       <c r="E94" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F94" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G94" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>96</v>
-      </c>
-      <c r="B95" t="s">
-        <v>121</v>
-      </c>
-      <c r="C95" t="s">
-        <v>121</v>
-      </c>
-      <c r="D95" t="s">
-        <v>121</v>
-      </c>
-      <c r="E95" t="s">
-        <v>119</v>
-      </c>
-      <c r="F95" t="s">
-        <v>98</v>
-      </c>
-      <c r="G95" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>128</v>
-      </c>
-      <c r="F96" t="s">
-        <v>100</v>
-      </c>
-      <c r="G96" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>129</v>
-      </c>
-      <c r="F97" t="s">
-        <v>98</v>
-      </c>
-      <c r="G97" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>130</v>
-      </c>
-      <c r="F98" t="s">
-        <v>100</v>
-      </c>
-      <c r="G98" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -2833,12 +2778,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -2847,7 +2786,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001F87334A6AC30D4EA6021977FA7E2445" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="504bd14f85abc770ed43885d52246388">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b370a6fa-a798-42e0-969d-19c284d8683f" xmlns:ns3="62ca1376-8bea-4949-825e-fec085c3924e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="823b5556cd3b486fc41cc4ce5ea1e5e3" ns2:_="" ns3:_="">
     <xsd:import namespace="b370a6fa-a798-42e0-969d-19c284d8683f"/>
@@ -3044,16 +2983,13 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B38691F2-7C3C-45D9-A92D-DA4AC2637426}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45727BA0-B405-4663-9BCB-94D3BF8DEB60}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -3061,7 +2997,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{69C37DFD-2EFA-4F90-80F6-395E655C9B7A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3078,4 +3014,13 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B38691F2-7C3C-45D9-A92D-DA4AC2637426}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/_input/static/base_adhoc.xlsx
+++ b/data/_input/static/base_adhoc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://worldhealthorg.sharepoint.com/sites/COVID19VaccineDeliveryFacility-DataAnalyticsandMonitoring/Shared Documents/Data, Analytics, and Monitoring/02 Analysis/03 CCAP data files/220428/input/static/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://worldhealthorg.sharepoint.com/sites/COVID19VaccineDeliveryFacility-DataAnalyticsandMonitoring/Shared Documents/Data, Analytics, and Monitoring/02 Analysis/01 Static datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{DE7D95E1-C864-4406-8C11-8A3892144999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E5805243-8F68-44C4-90A8-F0723143FA46}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{DE7D95E1-C864-4406-8C11-8A3892144999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B336990A-B8CD-4409-A806-2BE03A646FC0}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{43689874-1506-456E-964F-93125D26FA22}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{43689874-1506-456E-964F-93125D26FA22}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="2" r:id="rId1"/>
@@ -449,7 +449,11 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -468,7 +472,7 @@
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{BFC132AF-A949-4BC1-9081-E1C9D167D5F9}" name="iso"/>
     <tableColumn id="2" xr3:uid="{B44CB430-2D1A-4E47-BBC0-8E86536BCED6}" name="target_mid"/>
-    <tableColumn id="3" xr3:uid="{B76DEBD9-67F5-4E9C-BB6C-F055B8B14C08}" name="deadline_mid"/>
+    <tableColumn id="3" xr3:uid="{B76DEBD9-67F5-4E9C-BB6C-F055B8B14C08}" name="deadline_mid" dataDxfId="0"/>
     <tableColumn id="4" xr3:uid="{45A3A324-F59A-4508-AFB6-51A9F6619C07}" name="rate_needed"/>
     <tableColumn id="5" xr3:uid="{2CAC5469-D842-439E-984F-8B4A8B4DDCBB}" name="jj_policy"/>
     <tableColumn id="6" xr3:uid="{9DB51441-B949-4D2E-BA96-4EDEB38D4903}" name="old_defintion"/>
@@ -777,26 +781,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9FEE266-E5C5-49B1-B023-B945AB1A2E2C}">
   <dimension ref="A1:G94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:XFD36"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="12.140625" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.1796875" customWidth="1"/>
+    <col min="3" max="3" width="14.1796875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.54296875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.81640625" customWidth="1"/>
+    <col min="6" max="6" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>35</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D1" t="s">
@@ -812,14 +818,14 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2">
         <v>0.2</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>44742</v>
       </c>
       <c r="D2"/>
@@ -833,14 +839,14 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>38</v>
       </c>
       <c r="B3" t="s">
         <v>122</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>122</v>
       </c>
       <c r="D3" t="s">
@@ -856,14 +862,14 @@
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>39</v>
       </c>
       <c r="B4" t="s">
         <v>122</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>122</v>
       </c>
       <c r="D4" t="s">
@@ -879,14 +885,14 @@
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>40</v>
       </c>
       <c r="B5" t="s">
         <v>122</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>122</v>
       </c>
       <c r="D5" t="s">
@@ -902,14 +908,14 @@
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>41</v>
       </c>
       <c r="B6" t="s">
         <v>122</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>122</v>
       </c>
       <c r="D6" t="s">
@@ -925,14 +931,14 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>42</v>
       </c>
       <c r="B7" t="s">
         <v>122</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>122</v>
       </c>
       <c r="D7" t="s">
@@ -945,14 +951,14 @@
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>43</v>
       </c>
       <c r="B8" t="s">
         <v>122</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>122</v>
       </c>
       <c r="D8" t="s">
@@ -968,14 +974,14 @@
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9">
         <v>0.35</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>44742</v>
       </c>
       <c r="D9"/>
@@ -986,14 +992,14 @@
         <v>107</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>11</v>
       </c>
       <c r="B10">
         <v>0.28000000000000003</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>44742</v>
       </c>
       <c r="D10"/>
@@ -1007,14 +1013,14 @@
         <v>107</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>44</v>
       </c>
       <c r="B11" t="s">
         <v>122</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="1" t="s">
         <v>122</v>
       </c>
       <c r="D11"/>
@@ -1028,14 +1034,14 @@
         <v>105</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>45</v>
       </c>
       <c r="B12" t="s">
         <v>122</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="1" t="s">
         <v>122</v>
       </c>
       <c r="D12" t="s">
@@ -1051,14 +1057,14 @@
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="B13">
         <v>0.1</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1">
         <v>44742</v>
       </c>
       <c r="D13"/>
@@ -1072,14 +1078,14 @@
         <v>107</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
       <c r="B14">
         <v>0.13</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="1">
         <v>44742</v>
       </c>
       <c r="D14"/>
@@ -1093,14 +1099,14 @@
         <v>105</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
       <c r="B15">
         <v>0.24</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="1">
         <v>44742</v>
       </c>
       <c r="D15"/>
@@ -1114,14 +1120,14 @@
         <v>107</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>46</v>
       </c>
       <c r="B16" t="s">
         <v>122</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="1" t="s">
         <v>122</v>
       </c>
       <c r="D16" t="s">
@@ -1137,14 +1143,14 @@
         <v>105</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>47</v>
       </c>
       <c r="B17" t="s">
         <v>122</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="1" t="s">
         <v>122</v>
       </c>
       <c r="D17" t="s">
@@ -1160,14 +1166,14 @@
         <v>105</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>16</v>
       </c>
       <c r="B18">
         <v>0.7</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="1">
         <v>44742</v>
       </c>
       <c r="D18"/>
@@ -1178,14 +1184,14 @@
         <v>107</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>48</v>
       </c>
       <c r="B19" t="s">
         <v>122</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="1" t="s">
         <v>122</v>
       </c>
       <c r="D19" t="s">
@@ -1201,14 +1207,14 @@
         <v>105</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>15</v>
       </c>
       <c r="B20">
         <v>0.22500000000000001</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="1">
         <v>44742</v>
       </c>
       <c r="D20"/>
@@ -1219,14 +1225,14 @@
         <v>107</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>3</v>
       </c>
       <c r="B21">
         <v>0.4</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="1">
         <v>44742</v>
       </c>
       <c r="D21"/>
@@ -1240,14 +1246,14 @@
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>49</v>
       </c>
       <c r="B22" t="s">
         <v>122</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="1" t="s">
         <v>122</v>
       </c>
       <c r="D22" t="s">
@@ -1263,28 +1269,28 @@
         <v>106</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>50</v>
       </c>
       <c r="B23" t="s">
         <v>122</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="1" t="s">
         <v>122</v>
       </c>
       <c r="D23" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>51</v>
       </c>
       <c r="B24" t="s">
         <v>122</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="1" t="s">
         <v>122</v>
       </c>
       <c r="D24" t="s">
@@ -1297,14 +1303,14 @@
         <v>110</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>52</v>
       </c>
       <c r="B25" t="s">
         <v>122</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="1" t="s">
         <v>122</v>
       </c>
       <c r="D25" t="s">
@@ -1320,14 +1326,14 @@
         <v>105</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>53</v>
       </c>
       <c r="B26" t="s">
         <v>122</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="1" t="s">
         <v>122</v>
       </c>
       <c r="D26" t="s">
@@ -1343,14 +1349,14 @@
         <v>105</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>4</v>
       </c>
       <c r="B27">
         <v>0.23</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="1">
         <v>44742</v>
       </c>
       <c r="D27"/>
@@ -1364,14 +1370,14 @@
         <v>107</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>54</v>
       </c>
       <c r="B28" t="s">
         <v>122</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="1" t="s">
         <v>122</v>
       </c>
       <c r="D28" t="s">
@@ -1387,14 +1393,14 @@
         <v>108</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>5</v>
       </c>
       <c r="B29">
         <v>0.4</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="1">
         <v>44742</v>
       </c>
       <c r="D29"/>
@@ -1408,14 +1414,14 @@
         <v>105</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>21</v>
       </c>
       <c r="B30">
         <v>0.15</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="1">
         <v>44742</v>
       </c>
       <c r="D30"/>
@@ -1429,14 +1435,14 @@
         <v>105</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>6</v>
       </c>
       <c r="B31">
         <v>0.18</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="1">
         <v>44742</v>
       </c>
       <c r="D31"/>
@@ -1450,14 +1456,14 @@
         <v>107</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>55</v>
       </c>
       <c r="B32" t="s">
         <v>122</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="1" t="s">
         <v>122</v>
       </c>
       <c r="D32" t="s">
@@ -1473,14 +1479,14 @@
         <v>111</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>17</v>
       </c>
       <c r="B33">
         <v>0.159</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="1">
         <v>44742</v>
       </c>
       <c r="D33"/>
@@ -1491,14 +1497,14 @@
         <v>105</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>18</v>
       </c>
       <c r="B34">
         <v>0.17499999999999999</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="1">
         <v>44742</v>
       </c>
       <c r="D34"/>
@@ -1512,14 +1518,14 @@
         <v>107</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>56</v>
       </c>
       <c r="B35" t="s">
         <v>122</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="1" t="s">
         <v>122</v>
       </c>
       <c r="D35" t="s">
@@ -1532,14 +1538,14 @@
         <v>110</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>19</v>
       </c>
       <c r="B36">
         <v>0.7</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="1">
         <v>44742</v>
       </c>
       <c r="D36"/>
@@ -1553,14 +1559,14 @@
         <v>112</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>57</v>
       </c>
       <c r="B37" t="s">
         <v>122</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="1" t="s">
         <v>122</v>
       </c>
       <c r="D37" t="s">
@@ -1573,14 +1579,14 @@
         <v>106</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>58</v>
       </c>
       <c r="B38" t="s">
         <v>122</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="1" t="s">
         <v>122</v>
       </c>
       <c r="D38" t="s">
@@ -1593,14 +1599,14 @@
         <v>105</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>59</v>
       </c>
       <c r="B39" t="s">
         <v>122</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="1" t="s">
         <v>122</v>
       </c>
       <c r="D39" t="s">
@@ -1613,14 +1619,14 @@
         <v>105</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>7</v>
       </c>
       <c r="B40">
         <v>0.3</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="1">
         <v>44742</v>
       </c>
       <c r="D40"/>
@@ -1631,14 +1637,14 @@
         <v>105</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>60</v>
       </c>
       <c r="B41" t="s">
         <v>122</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="1" t="s">
         <v>122</v>
       </c>
       <c r="D41" t="s">
@@ -1654,14 +1660,14 @@
         <v>108</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>61</v>
       </c>
       <c r="B42" t="s">
         <v>122</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="1" t="s">
         <v>122</v>
       </c>
       <c r="D42" t="s">
@@ -1674,14 +1680,14 @@
         <v>113</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>62</v>
       </c>
       <c r="B43" t="s">
         <v>122</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="1" t="s">
         <v>122</v>
       </c>
       <c r="D43" t="s">
@@ -1694,14 +1700,14 @@
         <v>114</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>63</v>
       </c>
       <c r="B44" t="s">
         <v>122</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="1" t="s">
         <v>122</v>
       </c>
       <c r="D44" t="s">
@@ -1717,14 +1723,14 @@
         <v>108</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>64</v>
       </c>
       <c r="B45" t="s">
         <v>122</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="1" t="s">
         <v>122</v>
       </c>
       <c r="D45" t="s">
@@ -1737,14 +1743,14 @@
         <v>105</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>65</v>
       </c>
       <c r="B46" t="s">
         <v>122</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="1" t="s">
         <v>122</v>
       </c>
       <c r="D46" t="s">
@@ -1757,14 +1763,14 @@
         <v>105</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>23</v>
       </c>
       <c r="B47">
         <v>0.16833000000000001</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="1">
         <v>44742</v>
       </c>
       <c r="D47"/>
@@ -1778,14 +1784,14 @@
         <v>107</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>24</v>
       </c>
       <c r="B48">
         <v>0.23300000000000001</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="1">
         <v>44742</v>
       </c>
       <c r="D48"/>
@@ -1796,14 +1802,14 @@
         <v>105</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>66</v>
       </c>
       <c r="B49" t="s">
         <v>122</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="1" t="s">
         <v>122</v>
       </c>
       <c r="D49" t="s">
@@ -1816,14 +1822,14 @@
         <v>105</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>22</v>
       </c>
       <c r="B50">
         <v>0.23499999999999999</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="1">
         <v>44742</v>
       </c>
       <c r="D50"/>
@@ -1837,14 +1843,14 @@
         <v>105</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>67</v>
       </c>
       <c r="B51" t="s">
         <v>122</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="1" t="s">
         <v>122</v>
       </c>
       <c r="D51" t="s">
@@ -1860,14 +1866,14 @@
         <v>108</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>68</v>
       </c>
       <c r="B52" t="s">
         <v>122</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="1" t="s">
         <v>122</v>
       </c>
       <c r="D52" t="s">
@@ -1880,14 +1886,14 @@
         <v>105</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>69</v>
       </c>
       <c r="B53" t="s">
         <v>122</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="1" t="s">
         <v>122</v>
       </c>
       <c r="D53" t="s">
@@ -1903,14 +1909,14 @@
         <v>108</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>70</v>
       </c>
       <c r="B54" t="s">
         <v>122</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="1" t="s">
         <v>122</v>
       </c>
       <c r="D54" t="s">
@@ -1926,14 +1932,14 @@
         <v>108</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>71</v>
       </c>
       <c r="B55" t="s">
         <v>122</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="1" t="s">
         <v>122</v>
       </c>
       <c r="D55" t="s">
@@ -1949,14 +1955,14 @@
         <v>115</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>72</v>
       </c>
       <c r="B56" t="s">
         <v>122</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="1" t="s">
         <v>122</v>
       </c>
       <c r="D56" t="s">
@@ -1972,14 +1978,14 @@
         <v>107</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>73</v>
       </c>
       <c r="B57" t="s">
         <v>122</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="1" t="s">
         <v>122</v>
       </c>
       <c r="D57" t="s">
@@ -1995,14 +2001,14 @@
         <v>105</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>74</v>
       </c>
       <c r="B58" t="s">
         <v>122</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="1" t="s">
         <v>122</v>
       </c>
       <c r="D58" t="s">
@@ -2015,14 +2021,14 @@
         <v>105</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>75</v>
       </c>
       <c r="B59" t="s">
         <v>122</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="1" t="s">
         <v>122</v>
       </c>
       <c r="D59" t="s">
@@ -2035,14 +2041,14 @@
         <v>106</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>20</v>
       </c>
       <c r="B60">
         <v>0.214</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="1">
         <v>44742</v>
       </c>
       <c r="D60"/>
@@ -2053,14 +2059,14 @@
         <v>105</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>25</v>
       </c>
       <c r="B61">
         <v>0.18149999999999999</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="1">
         <v>44742</v>
       </c>
       <c r="D61">
@@ -2073,14 +2079,14 @@
         <v>107</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>76</v>
       </c>
       <c r="B62" t="s">
         <v>122</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="1" t="s">
         <v>122</v>
       </c>
       <c r="D62" t="s">
@@ -2096,14 +2102,14 @@
         <v>110</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>77</v>
       </c>
       <c r="B63" t="s">
         <v>122</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="1" t="s">
         <v>122</v>
       </c>
       <c r="D63" t="s">
@@ -2116,14 +2122,14 @@
         <v>106</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>0</v>
       </c>
       <c r="B64">
         <v>0.1</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="1">
         <v>44742</v>
       </c>
       <c r="D64"/>
@@ -2134,14 +2140,14 @@
         <v>116</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>78</v>
       </c>
       <c r="B65" t="s">
         <v>122</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="1" t="s">
         <v>122</v>
       </c>
       <c r="D65" t="s">
@@ -2157,14 +2163,14 @@
         <v>108</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>79</v>
       </c>
       <c r="B66" t="s">
         <v>122</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="1" t="s">
         <v>122</v>
       </c>
       <c r="D66" t="s">
@@ -2180,14 +2186,14 @@
         <v>113</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>80</v>
       </c>
       <c r="B67" t="s">
         <v>122</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="1" t="s">
         <v>122</v>
       </c>
       <c r="D67" t="s">
@@ -2203,14 +2209,14 @@
         <v>105</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>81</v>
       </c>
       <c r="B68" t="s">
         <v>122</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="1" t="s">
         <v>122</v>
       </c>
       <c r="D68" t="s">
@@ -2223,14 +2229,14 @@
         <v>111</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>82</v>
       </c>
       <c r="B69" t="s">
         <v>122</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="1" t="s">
         <v>122</v>
       </c>
       <c r="D69" t="s">
@@ -2246,14 +2252,14 @@
         <v>106</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>83</v>
       </c>
       <c r="B70" t="s">
         <v>122</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="1" t="s">
         <v>122</v>
       </c>
       <c r="D70" t="s">
@@ -2266,14 +2272,14 @@
         <v>108</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>84</v>
       </c>
       <c r="B71" t="s">
         <v>122</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" s="1" t="s">
         <v>122</v>
       </c>
       <c r="D71" t="s">
@@ -2289,14 +2295,14 @@
         <v>105</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>8</v>
       </c>
       <c r="B72">
         <v>0.26500000000000001</v>
       </c>
-      <c r="C72">
+      <c r="C72" s="1">
         <v>44742</v>
       </c>
       <c r="D72"/>
@@ -2310,14 +2316,14 @@
         <v>107</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>26</v>
       </c>
       <c r="B73">
         <v>0.4</v>
       </c>
-      <c r="C73">
+      <c r="C73" s="1">
         <v>44742</v>
       </c>
       <c r="D73"/>
@@ -2331,14 +2337,14 @@
         <v>105</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>27</v>
       </c>
       <c r="B74">
         <v>0.25</v>
       </c>
-      <c r="C74">
+      <c r="C74" s="1">
         <v>44742</v>
       </c>
       <c r="D74"/>
@@ -2352,14 +2358,14 @@
         <v>116</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>9</v>
       </c>
       <c r="B75">
         <v>0.2</v>
       </c>
-      <c r="C75">
+      <c r="C75" s="1">
         <v>44742</v>
       </c>
       <c r="D75"/>
@@ -2373,14 +2379,14 @@
         <v>106</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>28</v>
       </c>
       <c r="B76">
         <v>0.25</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="1">
         <v>44742</v>
       </c>
       <c r="D76"/>
@@ -2394,14 +2400,14 @@
         <v>107</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>85</v>
       </c>
       <c r="B77" t="s">
         <v>122</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" s="1" t="s">
         <v>122</v>
       </c>
       <c r="D77" t="s">
@@ -2417,14 +2423,14 @@
         <v>105</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>32</v>
       </c>
       <c r="B78">
         <v>0.2</v>
       </c>
-      <c r="C78">
+      <c r="C78" s="1">
         <v>44742</v>
       </c>
       <c r="D78"/>
@@ -2435,14 +2441,14 @@
         <v>117</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>29</v>
       </c>
       <c r="B79">
         <v>0.35</v>
       </c>
-      <c r="C79">
+      <c r="C79" s="1">
         <v>44742</v>
       </c>
       <c r="D79"/>
@@ -2453,14 +2459,14 @@
         <v>110</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>86</v>
       </c>
       <c r="B80" t="s">
         <v>122</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" s="1" t="s">
         <v>122</v>
       </c>
       <c r="D80" t="s">
@@ -2473,14 +2479,14 @@
         <v>118</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>87</v>
       </c>
       <c r="B81" t="s">
         <v>122</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" s="1" t="s">
         <v>122</v>
       </c>
       <c r="D81" t="s">
@@ -2493,14 +2499,14 @@
         <v>105</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>88</v>
       </c>
       <c r="B82" t="s">
         <v>122</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82" s="1" t="s">
         <v>122</v>
       </c>
       <c r="D82" t="s">
@@ -2513,14 +2519,14 @@
         <v>105</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>89</v>
       </c>
       <c r="B83" t="s">
         <v>122</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" s="1" t="s">
         <v>122</v>
       </c>
       <c r="D83" t="s">
@@ -2536,14 +2542,14 @@
         <v>108</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>90</v>
       </c>
       <c r="B84" t="s">
         <v>122</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C84" s="1" t="s">
         <v>122</v>
       </c>
       <c r="D84" t="s">
@@ -2559,14 +2565,14 @@
         <v>119</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>91</v>
       </c>
       <c r="B85" t="s">
         <v>122</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C85" s="1" t="s">
         <v>122</v>
       </c>
       <c r="D85" t="s">
@@ -2579,14 +2585,14 @@
         <v>108</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>31</v>
       </c>
       <c r="B86">
         <v>0.33</v>
       </c>
-      <c r="C86">
+      <c r="C86" s="1">
         <v>44742</v>
       </c>
       <c r="D86"/>
@@ -2597,14 +2603,14 @@
         <v>105</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>92</v>
       </c>
       <c r="B87" t="s">
         <v>122</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C87" s="1" t="s">
         <v>122</v>
       </c>
       <c r="D87" t="s">
@@ -2617,14 +2623,14 @@
         <v>114</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>30</v>
       </c>
       <c r="B88">
         <v>0.4667</v>
       </c>
-      <c r="C88">
+      <c r="C88" s="1">
         <v>44742</v>
       </c>
       <c r="D88"/>
@@ -2635,14 +2641,14 @@
         <v>107</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>93</v>
       </c>
       <c r="B89" t="s">
         <v>122</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C89" s="1" t="s">
         <v>122</v>
       </c>
       <c r="D89" t="s">
@@ -2655,14 +2661,14 @@
         <v>114</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>94</v>
       </c>
       <c r="B90" t="s">
         <v>122</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C90" s="1" t="s">
         <v>122</v>
       </c>
       <c r="D90" t="s">
@@ -2675,14 +2681,14 @@
         <v>108</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>95</v>
       </c>
       <c r="B91" t="s">
         <v>122</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C91" s="1" t="s">
         <v>122</v>
       </c>
       <c r="D91" t="s">
@@ -2695,14 +2701,14 @@
         <v>108</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>33</v>
       </c>
       <c r="B92">
         <v>0.1</v>
       </c>
-      <c r="C92">
+      <c r="C92" s="1">
         <v>44742</v>
       </c>
       <c r="D92"/>
@@ -2716,14 +2722,14 @@
         <v>106</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>34</v>
       </c>
       <c r="B93">
         <v>0.115</v>
       </c>
-      <c r="C93">
+      <c r="C93" s="1">
         <v>44742</v>
       </c>
       <c r="D93"/>
@@ -2737,14 +2743,14 @@
         <v>105</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>96</v>
       </c>
       <c r="B94" t="s">
         <v>122</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C94" s="1" t="s">
         <v>122</v>
       </c>
       <c r="D94" t="s">
@@ -2778,15 +2784,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001F87334A6AC30D4EA6021977FA7E2445" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="504bd14f85abc770ed43885d52246388">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b370a6fa-a798-42e0-969d-19c284d8683f" xmlns:ns3="62ca1376-8bea-4949-825e-fec085c3924e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="823b5556cd3b486fc41cc4ce5ea1e5e3" ns2:_="" ns3:_="">
     <xsd:import namespace="b370a6fa-a798-42e0-969d-19c284d8683f"/>
@@ -2983,6 +2980,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -2990,14 +2996,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45727BA0-B405-4663-9BCB-94D3BF8DEB60}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{69C37DFD-2EFA-4F90-80F6-395E655C9B7A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3016,6 +3014,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45727BA0-B405-4663-9BCB-94D3BF8DEB60}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B38691F2-7C3C-45D9-A92D-DA4AC2637426}">
   <ds:schemaRefs>

--- a/data/_input/static/base_adhoc.xlsx
+++ b/data/_input/static/base_adhoc.xlsx
@@ -2784,8 +2784,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001F87334A6AC30D4EA6021977FA7E2445" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="504bd14f85abc770ed43885d52246388">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b370a6fa-a798-42e0-969d-19c284d8683f" xmlns:ns3="62ca1376-8bea-4949-825e-fec085c3924e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="823b5556cd3b486fc41cc4ce5ea1e5e3" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001F87334A6AC30D4EA6021977FA7E2445" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="13eff9136b4917bb459ad9c1db870f6d">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b370a6fa-a798-42e0-969d-19c284d8683f" xmlns:ns3="62ca1376-8bea-4949-825e-fec085c3924e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="60e7197df19c7150b1ba0c3bfe00adf4" ns2:_="" ns3:_="">
     <xsd:import namespace="b370a6fa-a798-42e0-969d-19c284d8683f"/>
     <xsd:import namespace="62ca1376-8bea-4949-825e-fec085c3924e"/>
     <xsd:element name="properties">
@@ -2803,6 +2803,9 @@
                 <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -2848,6 +2851,23 @@
     <xsd:element name="MediaLengthInSeconds" ma:index="14" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="18" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="19" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="20" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -2996,22 +3016,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{69C37DFD-2EFA-4F90-80F6-395E655C9B7A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="b370a6fa-a798-42e0-969d-19c284d8683f"/>
-    <ds:schemaRef ds:uri="62ca1376-8bea-4949-825e-fec085c3924e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD127EE7-F38F-4354-A27B-F0530F375041}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
